--- a/github-alunos.xlsx
+++ b/github-alunos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleiton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleiton\Desktop\etec-uirapuru\2-MOD-DS_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48897732-C26C-499B-B78E-5FAABA494EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B39D6-C1FA-4A87-8B82-17FFA87468D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>Nome</t>
   </si>
@@ -229,12 +229,6 @@
     <t>https://github.com/eduardoesena</t>
   </si>
   <si>
-    <t>26/04/2025</t>
-  </si>
-  <si>
-    <t>Nota</t>
-  </si>
-  <si>
     <t>https://github.com/jorge-As25</t>
   </si>
   <si>
@@ -269,13 +263,34 @@
   </si>
   <si>
     <t>https://github.com/taaribe</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>https://github.com/gui07777/</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>03/05/2025</t>
+  </si>
+  <si>
+    <t>Nota 2° AT</t>
+  </si>
+  <si>
+    <t>Nota  1° AT</t>
+  </si>
+  <si>
+    <t>PWII - Avaliação Técnica - 2° TRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,29 +344,49 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,6 +409,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -382,7 +435,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -394,13 +447,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -430,10 +498,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -448,17 +512,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59BAED27-C663-42E6-A93C-E77AB5B357B9}" name="Tabela1" displayName="Tabela1" ref="A1:E27" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E27" xr:uid="{59BAED27-C663-42E6-A93C-E77AB5B357B9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59BAED27-C663-42E6-A93C-E77AB5B357B9}" name="Tabela1" displayName="Tabela1" ref="A6:G32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A6:G32" xr:uid="{59BAED27-C663-42E6-A93C-E77AB5B357B9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:E32">
+    <sortCondition ref="A32"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{01A047DA-60FB-4250-AE7A-D7D982F22A1D}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{395ADE4E-7A63-49C6-AB91-9A8448360A4D}" name="Username"/>
-    <tableColumn id="3" xr3:uid="{D5F2030D-FB37-49F5-8615-1CA64719CBEB}" name="URL Github" dataDxfId="1" dataCellStyle="Hiperlink"/>
-    <tableColumn id="4" xr3:uid="{A2A3687B-E398-4BD0-AECC-436FB37FDE7C}" name="26/04/2025"/>
-    <tableColumn id="5" xr3:uid="{D66F1603-3560-413B-8F4C-FA35A34479AC}" name="Nota"/>
+    <tableColumn id="3" xr3:uid="{D5F2030D-FB37-49F5-8615-1CA64719CBEB}" name="URL Github" dataDxfId="0" dataCellStyle="Hiperlink"/>
+    <tableColumn id="4" xr3:uid="{A2A3687B-E398-4BD0-AECC-436FB37FDE7C}" name="23/04/2025"/>
+    <tableColumn id="5" xr3:uid="{D66F1603-3560-413B-8F4C-FA35A34479AC}" name="Nota  1° AT"/>
+    <tableColumn id="6" xr3:uid="{70BE8520-938D-4A8A-853A-9F6313BF4DEF}" name="03/05/2025"/>
+    <tableColumn id="7" xr3:uid="{8A98D805-5446-4609-B919-416420D1ED48}" name="Nota 2° AT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -751,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,146 +828,164 @@
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
@@ -909,68 +993,95 @@
       <c r="E10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -978,16 +1089,17 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -995,50 +1107,60 @@
       <c r="E16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
@@ -1046,75 +1168,104 @@
       <c r="E19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -1122,81 +1273,261 @@
       <c r="E24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C12" r:id="rId22" xr:uid="{287A0ED1-C53A-4F58-94F4-88DD8B5C89A0}"/>
-    <hyperlink ref="C4" r:id="rId23" xr:uid="{137EA4D9-319B-4434-85F5-2B1C7B1EEFA2}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C17" r:id="rId22" xr:uid="{287A0ED1-C53A-4F58-94F4-88DD8B5C89A0}"/>
+    <hyperlink ref="C9" r:id="rId23" xr:uid="{137EA4D9-319B-4434-85F5-2B1C7B1EEFA2}"/>
+    <hyperlink ref="C16" r:id="rId24" xr:uid="{33576AFA-A2A4-48FB-A459-36D30A1183B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>